--- a/excel-sheets/averaged-questions-arm-study-data2.xlsx
+++ b/excel-sheets/averaged-questions-arm-study-data2.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,10 +439,10 @@
           <t>1_Warmth</t>
         </is>
       </c>
-      <c r="F2" t="n">
-        <v>9</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -453,21 +453,9 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>4.166666666666667</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.333333333333333</v>
-      </c>
-      <c r="E3" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="F3" t="n">
-        <v>9</v>
-      </c>
-      <c r="G3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -478,21 +466,9 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5.666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>5.666666666666667</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="E4" t="n">
-        <v>3.833333333333333</v>
-      </c>
-      <c r="F4" t="n">
-        <v>9</v>
-      </c>
-      <c r="G4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -503,21 +479,9 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>3.666666666666667</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.666666666666667</v>
-      </c>
-      <c r="E5" t="n">
-        <v>2.333333333333333</v>
-      </c>
-      <c r="F5" t="n">
-        <v>5</v>
-      </c>
-      <c r="G5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -527,10 +491,10 @@
           <t>2_Warmth</t>
         </is>
       </c>
-      <c r="F6" t="n">
-        <v>9</v>
-      </c>
-      <c r="G6" t="n">
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -541,21 +505,9 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.166666666666667</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>6.833333333333333</v>
-      </c>
-      <c r="D7" t="n">
-        <v>4.333333333333333</v>
-      </c>
-      <c r="E7" t="n">
-        <v>5.833333333333333</v>
-      </c>
-      <c r="F7" t="n">
-        <v>9</v>
-      </c>
-      <c r="G7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -566,21 +518,9 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>3.666666666666667</v>
-      </c>
-      <c r="D8" t="n">
-        <v>4.333333333333333</v>
-      </c>
-      <c r="E8" t="n">
-        <v>4.666666666666667</v>
-      </c>
-      <c r="F8" t="n">
-        <v>9</v>
-      </c>
-      <c r="G8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -591,21 +531,9 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>3.666666666666667</v>
-      </c>
-      <c r="D9" t="n">
-        <v>2.333333333333333</v>
-      </c>
-      <c r="E9" t="n">
-        <v>3.333333333333333</v>
-      </c>
-      <c r="F9" t="n">
-        <v>5</v>
-      </c>
-      <c r="G9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -615,10 +543,10 @@
           <t>3_Warmth</t>
         </is>
       </c>
-      <c r="F10" t="n">
-        <v>9</v>
-      </c>
-      <c r="G10" t="n">
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -629,21 +557,9 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>3.666666666666667</v>
-      </c>
-      <c r="D11" t="n">
-        <v>5.833333333333333</v>
-      </c>
-      <c r="E11" t="n">
-        <v>6.666666666666667</v>
-      </c>
-      <c r="F11" t="n">
-        <v>9</v>
-      </c>
-      <c r="G11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -654,21 +570,9 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5.833333333333333</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>4.666666666666667</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1.666666666666667</v>
-      </c>
-      <c r="E12" t="n">
-        <v>2.166666666666667</v>
-      </c>
-      <c r="F12" t="n">
-        <v>9</v>
-      </c>
-      <c r="G12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -679,21 +583,9 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3.666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>2.333333333333333</v>
-      </c>
-      <c r="D13" t="n">
-        <v>3.333333333333333</v>
-      </c>
-      <c r="E13" t="n">
-        <v>2.333333333333333</v>
-      </c>
-      <c r="F13" t="n">
-        <v>5</v>
-      </c>
-      <c r="G13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -703,10 +595,10 @@
           <t>4_Warmth</t>
         </is>
       </c>
-      <c r="F14" t="n">
-        <v>9</v>
-      </c>
-      <c r="G14" t="n">
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -717,21 +609,9 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>6.666666666666667</v>
-      </c>
-      <c r="D15" t="n">
-        <v>4.666666666666667</v>
-      </c>
-      <c r="E15" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="F15" t="n">
-        <v>9</v>
-      </c>
-      <c r="G15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -742,21 +622,9 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>5.666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1.333333333333333</v>
-      </c>
-      <c r="E16" t="n">
-        <v>4</v>
-      </c>
-      <c r="F16" t="n">
-        <v>9</v>
-      </c>
-      <c r="G16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -767,21 +635,9 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>3.333333333333333</v>
+        <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>3.666666666666667</v>
-      </c>
-      <c r="D17" t="n">
-        <v>2.666666666666667</v>
-      </c>
-      <c r="E17" t="n">
-        <v>2.333333333333333</v>
-      </c>
-      <c r="F17" t="n">
-        <v>5</v>
-      </c>
-      <c r="G17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -791,10 +647,10 @@
           <t>5_Warmth</t>
         </is>
       </c>
-      <c r="F18" t="n">
-        <v>9</v>
-      </c>
-      <c r="G18" t="n">
+      <c r="B18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -805,21 +661,9 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>7.166666666666667</v>
-      </c>
-      <c r="D19" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="E19" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="F19" t="n">
-        <v>9</v>
-      </c>
-      <c r="G19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -830,21 +674,9 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>5.666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>3.666666666666667</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1.833333333333333</v>
-      </c>
-      <c r="E20" t="n">
-        <v>4</v>
-      </c>
-      <c r="F20" t="n">
-        <v>9</v>
-      </c>
-      <c r="G20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -855,21 +687,9 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>3.666666666666667</v>
-      </c>
-      <c r="D21" t="n">
-        <v>2.666666666666667</v>
-      </c>
-      <c r="E21" t="n">
-        <v>2.666666666666667</v>
-      </c>
-      <c r="F21" t="n">
-        <v>5</v>
-      </c>
-      <c r="G21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -879,10 +699,10 @@
           <t>6_Warmth</t>
         </is>
       </c>
-      <c r="F22" t="n">
-        <v>9</v>
-      </c>
-      <c r="G22" t="n">
+      <c r="B22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -893,21 +713,9 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>3.833333333333333</v>
+        <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>6.166666666666667</v>
-      </c>
-      <c r="D23" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="E23" t="n">
-        <v>3.333333333333333</v>
-      </c>
-      <c r="F23" t="n">
-        <v>9</v>
-      </c>
-      <c r="G23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -918,21 +726,9 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>5.5</v>
+        <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
-      </c>
-      <c r="D24" t="n">
-        <v>4.333333333333333</v>
-      </c>
-      <c r="E24" t="n">
-        <v>3.833333333333333</v>
-      </c>
-      <c r="F24" t="n">
-        <v>9</v>
-      </c>
-      <c r="G24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -943,21 +739,9 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3.666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>3.666666666666667</v>
-      </c>
-      <c r="D25" t="n">
-        <v>2.666666666666667</v>
-      </c>
-      <c r="E25" t="n">
-        <v>2.666666666666667</v>
-      </c>
-      <c r="F25" t="n">
-        <v>5</v>
-      </c>
-      <c r="G25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -967,10 +751,10 @@
           <t>7_Warmth</t>
         </is>
       </c>
-      <c r="F26" t="n">
-        <v>9</v>
-      </c>
-      <c r="G26" t="n">
+      <c r="B26" t="n">
+        <v>1</v>
+      </c>
+      <c r="C26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -981,21 +765,9 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>2.333333333333333</v>
-      </c>
-      <c r="D27" t="n">
-        <v>2.333333333333333</v>
-      </c>
-      <c r="E27" t="n">
-        <v>1.333333333333333</v>
-      </c>
-      <c r="F27" t="n">
-        <v>9</v>
-      </c>
-      <c r="G27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1006,21 +778,9 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>5.5</v>
+        <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
-      </c>
-      <c r="D28" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="E28" t="n">
-        <v>5.333333333333333</v>
-      </c>
-      <c r="F28" t="n">
-        <v>9</v>
-      </c>
-      <c r="G28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1031,21 +791,9 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C29" t="n">
-        <v>2.333333333333333</v>
-      </c>
-      <c r="D29" t="n">
-        <v>2.333333333333333</v>
-      </c>
-      <c r="E29" t="n">
-        <v>2.333333333333333</v>
-      </c>
-      <c r="F29" t="n">
-        <v>5</v>
-      </c>
-      <c r="G29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1055,10 +803,10 @@
           <t>8_Warmth</t>
         </is>
       </c>
-      <c r="F30" t="n">
-        <v>9</v>
-      </c>
-      <c r="G30" t="n">
+      <c r="B30" t="n">
+        <v>1</v>
+      </c>
+      <c r="C30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1069,21 +817,9 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2.333333333333333</v>
+        <v>1</v>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
-      </c>
-      <c r="D31" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="E31" t="n">
-        <v>4.666666666666667</v>
-      </c>
-      <c r="F31" t="n">
-        <v>9</v>
-      </c>
-      <c r="G31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1094,21 +830,9 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>6.166666666666667</v>
+        <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="D32" t="n">
-        <v>3.833333333333333</v>
-      </c>
-      <c r="E32" t="n">
-        <v>5.833333333333333</v>
-      </c>
-      <c r="F32" t="n">
-        <v>9</v>
-      </c>
-      <c r="G32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1119,21 +843,9 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C33" t="n">
-        <v>2.333333333333333</v>
-      </c>
-      <c r="D33" t="n">
-        <v>2</v>
-      </c>
-      <c r="E33" t="n">
-        <v>3</v>
-      </c>
-      <c r="F33" t="n">
-        <v>5</v>
-      </c>
-      <c r="G33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1143,10 +855,10 @@
           <t>9_Warmth</t>
         </is>
       </c>
-      <c r="F34" t="n">
-        <v>9</v>
-      </c>
-      <c r="G34" t="n">
+      <c r="B34" t="n">
+        <v>1</v>
+      </c>
+      <c r="C34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1157,21 +869,9 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2.833333333333333</v>
+        <v>1</v>
       </c>
       <c r="C35" t="n">
-        <v>2.833333333333333</v>
-      </c>
-      <c r="D35" t="n">
-        <v>3.333333333333333</v>
-      </c>
-      <c r="E35" t="n">
-        <v>2</v>
-      </c>
-      <c r="F35" t="n">
-        <v>9</v>
-      </c>
-      <c r="G35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1182,21 +882,9 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>5.666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C36" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="D36" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E36" t="n">
-        <v>6.166666666666667</v>
-      </c>
-      <c r="F36" t="n">
-        <v>9</v>
-      </c>
-      <c r="G36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1207,21 +895,9 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>2.333333333333333</v>
-      </c>
-      <c r="D37" t="n">
-        <v>2.333333333333333</v>
-      </c>
-      <c r="E37" t="n">
-        <v>3</v>
-      </c>
-      <c r="F37" t="n">
-        <v>5</v>
-      </c>
-      <c r="G37" t="n">
         <v>1</v>
       </c>
     </row>
